--- a/data/trans_dic/P23_DUKE_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social global bajo</t>
+          <t>Población que recibe apoyo social global bajo (tasa de respuesta: 94,09%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>78,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>66,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>79,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>68,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>71,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>73,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>81,51%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>73,43%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>68,97%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>76,53%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 17,5</t>
+          <t>54,8; 87,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 17,42</t>
+          <t>62,62; 90,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,39</t>
+          <t>47,75; 82,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 16,36</t>
+          <t>60,86; 91,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,27; 19,24</t>
+          <t>75,03; 95,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 21,7</t>
+          <t>51,86; 81,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 14,0</t>
+          <t>56,29; 83,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 15,18</t>
+          <t>58,05; 84,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,97; 13,15</t>
+          <t>71,67; 89,24</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>61,15; 82,34</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>57,21; 79,25</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>64,94; 85,67</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>71,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>87,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>89,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>83,09%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>91,34%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>90,16%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>92,35%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 44,15</t>
+          <t>41,79; 89,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 32,67</t>
+          <t>75,22; 97,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 51,62</t>
+          <t>80,74; 98,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 24,19</t>
+          <t>84,97; 98,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 17,1</t>
+          <t>86,05; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 16,43</t>
+          <t>81,21; 98,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 26,25</t>
+          <t>75,82; 94,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 22,74</t>
+          <t>76,27; 97,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,11; 33,75</t>
+          <t>59,89; 92,05</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>81,38; 96,18</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>82,72; 95,41</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>84,18; 96,85</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>88,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>87,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>88,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>88,21%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>91,67%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>93,16%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>87,33%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,24; 47,93</t>
+          <t>76,93; 96,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,34; 39,49</t>
+          <t>76,81; 95,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,46; 32,77</t>
+          <t>86,57; 98,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,34; 22,87</t>
+          <t>75,43; 94,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 17,25</t>
+          <t>81,04; 94,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,75; 27,81</t>
+          <t>88,25; 97,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,71; 33,44</t>
+          <t>85,27; 96,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,79; 25,09</t>
+          <t>79,47; 92,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,09; 26,69</t>
+          <t>82,41; 93,13</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>86,23; 95,46</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>88,11; 96,34</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>81,02; 92,08</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>88,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>91,9%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>91,75%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>89,37%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>90,57%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 19,16</t>
+          <t>82,71; 97,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,23; 27,32</t>
+          <t>78,63; 95,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,01; 24,88</t>
+          <t>74,88; 91,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,9; 29,27</t>
+          <t>83,3; 97,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,56; 35,46</t>
+          <t>85,76; 96,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,99; 35,41</t>
+          <t>86,46; 97,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,4; 22,46</t>
+          <t>86,64; 97,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,5; 29,48</t>
+          <t>80,52; 94,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,83; 28,45</t>
+          <t>86,62; 95,6</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>85,33; 95,2</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>83,21; 93,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>85,02; 94,63</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>76,64%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>84,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>85,73%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>83,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>80,2%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>88,95%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>88,24%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>89,57%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,35; 24,08</t>
+          <t>63,93; 86,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,28; 30,44</t>
+          <t>81,09; 97,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,86; 31,71</t>
+          <t>81,73; 97,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,3; 27,27</t>
+          <t>75,11; 93,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,21; 27,63</t>
+          <t>72,89; 93,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,1; 34,07</t>
+          <t>72,28; 94,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,14; 22,27</t>
+          <t>68,99; 92,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,82; 26,39</t>
+          <t>81,36; 97,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,91; 30,24</t>
+          <t>70,97; 87,14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>80,61; 94,55</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>80,94; 93,7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>82,83; 94,4</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>78,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>84,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>74,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>88,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>86,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>76,71%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>91,26%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>85,59%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>92,83%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 23,43</t>
+          <t>60,65; 91,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 26,86</t>
+          <t>73,98; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,86; 32,18</t>
+          <t>63,98; 95,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,48; 34,87</t>
+          <t>79,07; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,42; 30,08</t>
+          <t>57,78; 87,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,91; 64,56</t>
+          <t>75,13; 97,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,06; 26,37</t>
+          <t>68,54; 96,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,89; 26,48</t>
+          <t>77,75; 97,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,36; 61,64</t>
+          <t>62,46; 84,98</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>81,54; 96,69</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>73,93; 93,61</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>84,64; 97,14</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>80,81%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>88,25%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>86,09%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>89,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>88,6%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>86,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>84,87%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>88,44%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>86,53%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>88,35%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,79; 22,7</t>
+          <t>72,54; 85,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,24; 20,81</t>
+          <t>82,93; 91,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,58; 23,31</t>
+          <t>80,92; 90,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,74</t>
+          <t>85,41; 93,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,78; 18,72</t>
+          <t>85,08; 91,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,68; 29,27</t>
+          <t>84,95; 91,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,77; 19,77</t>
+          <t>82,81; 90,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,56; 18,74</t>
+          <t>83,13; 90,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,06; 23,7</t>
+          <t>80,34; 87,77</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>85,51; 91,02</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>83,49; 89,05</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>85,55; 90,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social global bajo (tasa de respuesta: 94,09%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>79531</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>77786</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>77685</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>106043</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>116924</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>77395</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>85628</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>107532</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>196456</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>155181</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>163313</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>213575</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>58653; 93311</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>61854; 89299</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>55859; 96377</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>81292; 122744</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>100537; 127353</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>58369; 91718</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>67436; 99925</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>84460; 123343</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>172733; 215093</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>129236; 174021</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>135447; 187632</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>181234; 239076</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>121364</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>122133</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>136598</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>214830</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>139294</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>108692</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>108945</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>142775</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>260658</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>230825</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>245543</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>357605</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>70526; 150214</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>101364; 131045</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>119684; 145554</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>193472; 224963</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>124751; 144968</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>95797; 115610</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>94108; 117897</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>121680; 155567</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>187874; 288762</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>205649; 243068</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>225298; 259859</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>325975; 375029</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>135524</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>106339</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>122037</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>142267</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>226810</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>188816</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>180793</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>201874</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>362333</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>295155</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>302829</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>344142</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>117809; 147220</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>93055; 115713</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>111207; 126424</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>122735; 154171</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>208772; 242238</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>177230; 196385</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>167625; 189116</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>183859; 214260</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>338511; 382529</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>277633; 307368</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>286399; 313152</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>319262; 362854</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>150903</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>114533</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>117048</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>160098</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>185975</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>154106</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>144463</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>175048</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>336879</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>268640</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>261512</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>335146</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>136820; 160491</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>101647; 123089</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>103930; 127119</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>143871; 167789</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>172484; 194688</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>141391; 159837</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>133268; 150146</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>158893; 186082</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>317528; 350421</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>249867; 278760</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>243470; 272572</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>314622; 350163</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>95219</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>81026</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>98724</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>116192</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>84551</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>62223</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>61111</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>103394</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>179769</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>143249</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>219586</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>79423; 107090</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>71738; 86678</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>87997; 104438</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>100417; 125164</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>72839; 93520</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>52460; 68774</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>50688; 68233</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>90671; 109067</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>159085; 195345</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>129815; 152266</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>146611; 169734</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>203048; 231417</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>72941</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>43093</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>46906</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>85736</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>70738</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>69231</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>70632</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>129315</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>143679</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>112323</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>117538</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>215052</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>56168; 84404</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>33344; 45072</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>35581; 53385</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>70427; 89068</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>54712; 83258</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>58612; 75813</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>56009; 79092</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>110864; 139142</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>116981; 159163</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>100362; 119004</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>101524; 128561</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>196073; 225029</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>554.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>534.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>554.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>560.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>655482</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>544910</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>598998</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>825166</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>824293</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>660464</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>651573</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>859939</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1479775</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1205373</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1250571</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1685105</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>588456; 696664</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>512063; 567527</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>563008; 628208</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>785295; 858759</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>793248; 852823</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>633254; 684241</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>620631; 674973</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>821111; 892556</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1400763; 1530361</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1165414; 1240638</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1206620; 1286965</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1631535; 1732783</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>